--- a/Simulation/Assets/Results/Congestion.xlsx
+++ b/Simulation/Assets/Results/Congestion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\workspace\TSB\Traffic_Simulation\Assets\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\workspace\TSB\Simulation\Assets\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EBD7EF2-9414-4D0C-89A4-5467A5557848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1FB55B-8BC1-4535-9E91-60593073DF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15160" yWindow="4980" windowWidth="17910" windowHeight="15530" activeTab="1" xr2:uid="{F81A2273-AA8A-41A4-A7B0-C274DB7A7C78}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{F81A2273-AA8A-41A4-A7B0-C274DB7A7C78}"/>
   </bookViews>
   <sheets>
     <sheet name="prev-10-shortest" sheetId="4" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="83">
   <si>
     <t>Truck-0</t>
   </si>
@@ -293,6 +293,14 @@
   </si>
   <si>
     <t>Truck_id</t>
+  </si>
+  <si>
+    <t>여러대 = isTwoFile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혼자 = isOnebyOne</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -679,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C2C484-9B3B-4452-B679-20744E6D870A}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -698,13 +706,13 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="F1" s="3" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -1545,8 +1553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89917086-BCBB-4FC5-8B87-38BEDF64B90A}">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
